--- a/lda2vec works/lda2vec-20.xlsx
+++ b/lda2vec works/lda2vec-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="894">
   <si>
     <t>id</t>
   </si>
@@ -1930,1204 +1930,772 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>price|rice|time|place</t>
-  </si>
-  <si>
-    <t>price|rice|view|high|going|food</t>
-  </si>
-  <si>
-    <t>price|rice|high|food</t>
-  </si>
-  <si>
-    <t>price|rice|food</t>
-  </si>
-  <si>
-    <t>price|rice|high|would|good|food</t>
-  </si>
-  <si>
-    <t>place|value|great</t>
-  </si>
-  <si>
-    <t>price|rice|reasonably|flavorful|plentiful|food</t>
+    <t>price|place</t>
+  </si>
+  <si>
+    <t>high|price|food|going|view</t>
+  </si>
+  <si>
+    <t>high|price|food</t>
+  </si>
+  <si>
+    <t>price|food</t>
+  </si>
+  <si>
+    <t>high|price|food|good|would</t>
+  </si>
+  <si>
+    <t>value|place|great</t>
+  </si>
+  <si>
+    <t>plentiful|price|flavorful|food|reasonably</t>
   </si>
   <si>
     <t>atmosphere|relaxed|casual</t>
   </si>
   <si>
-    <t>price|amazing|rice</t>
-  </si>
-  <si>
-    <t>amazing|value</t>
-  </si>
-  <si>
-    <t>price|rice|high</t>
-  </si>
-  <si>
-    <t>price|rice|good|great|service|food</t>
-  </si>
-  <si>
-    <t>amazing|pizza|place|great|service</t>
-  </si>
-  <si>
-    <t>price|rice|absolutely|moderate|appropriate</t>
-  </si>
-  <si>
-    <t>price|rice|friendly</t>
-  </si>
-  <si>
-    <t>staff|place|like</t>
-  </si>
-  <si>
-    <t>portion|food</t>
-  </si>
-  <si>
-    <t>time|good|food</t>
+    <t>price|amazing</t>
+  </si>
+  <si>
+    <t>value|amazing</t>
+  </si>
+  <si>
+    <t>high|price</t>
+  </si>
+  <si>
+    <t>service|price|food|good|great</t>
+  </si>
+  <si>
+    <t>service|place|great|amazing|pizza</t>
+  </si>
+  <si>
+    <t>price|appropriate|absolutely</t>
+  </si>
+  <si>
+    <t>price|friendly</t>
+  </si>
+  <si>
+    <t>place|like|staff</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>food|good|always</t>
+  </si>
+  <si>
+    <t>always|amazing</t>
+  </si>
+  <si>
+    <t>service|price</t>
+  </si>
+  <si>
+    <t>service|always|excellent</t>
+  </si>
+  <si>
+    <t>place|really</t>
+  </si>
+  <si>
+    <t>good|great</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>service|friendly</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>sushi|restaurant</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>price|sushi</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>fresh|food</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>food|good</t>
+  </si>
+  <si>
+    <t>service|nice</t>
+  </si>
+  <si>
+    <t>food|like</t>
+  </si>
+  <si>
+    <t>casual|nice|would|best</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>service|price|food|great</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>price|pizza</t>
+  </si>
+  <si>
+    <t>good|pizza</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>food|good|menu|great|always|amazing</t>
+  </si>
+  <si>
+    <t>fresh|delicious|dish|really</t>
+  </si>
+  <si>
+    <t>great|best</t>
+  </si>
+  <si>
+    <t>friendly|always|staff</t>
+  </si>
+  <si>
+    <t>service|food|delicious|great|excellent</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>service|food|place|great|always</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>friendly|always</t>
+  </si>
+  <si>
+    <t>like|pizza</t>
+  </si>
+  <si>
+    <t>good|view</t>
+  </si>
+  <si>
+    <t>service|friendly|great</t>
+  </si>
+  <si>
+    <t>service|pizza</t>
+  </si>
+  <si>
+    <t>sushi|best</t>
+  </si>
+  <si>
+    <t>food|place</t>
+  </si>
+  <si>
+    <t>price|atmosphere|great</t>
+  </si>
+  <si>
+    <t>service|food|amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>food|good|best</t>
+  </si>
+  <si>
+    <t>fresh|like|best|pizza</t>
+  </si>
+  <si>
+    <t>food|great|view</t>
+  </si>
+  <si>
+    <t>high|service|nice</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>good|always</t>
+  </si>
+  <si>
+    <t>food|delicious</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>fresh|delicious|pizza</t>
+  </si>
+  <si>
+    <t>menu|nice|would</t>
+  </si>
+  <si>
+    <t>staff|best</t>
+  </si>
+  <si>
+    <t>food|restaurant</t>
+  </si>
+  <si>
+    <t>service|good</t>
+  </si>
+  <si>
+    <t>restaurant|always</t>
+  </si>
+  <si>
+    <t>fresh|food|good</t>
+  </si>
+  <si>
+    <t>meal|best</t>
+  </si>
+  <si>
+    <t>food|really</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>food|delicious|dish</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>high|fresh</t>
+  </si>
+  <si>
+    <t>high|service|food</t>
+  </si>
+  <si>
+    <t>absolutely|staff</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>price|rice|service</t>
-  </si>
-  <si>
-    <t>ever|decor|thing|excellent|service</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ever|thai|thing|food</t>
-  </si>
-  <si>
-    <t>moderate|special|thing</t>
-  </si>
-  <si>
-    <t>ever|never|tasty</t>
-  </si>
-  <si>
-    <t>place|decor</t>
-  </si>
-  <si>
-    <t>good|great</t>
-  </si>
-  <si>
-    <t>great|service</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>attentive|friendly|service</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>ever|service</t>
-  </si>
-  <si>
-    <t>like|wait</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>restaurant|sushi</t>
-  </si>
-  <si>
-    <t>portion|sushi|fresh</t>
-  </si>
-  <si>
-    <t>rice|fish|good</t>
-  </si>
-  <si>
-    <t>price|rice|well|sushi</t>
-  </si>
-  <si>
-    <t>well|service|food</t>
-  </si>
-  <si>
-    <t>ever|menu</t>
-  </si>
-  <si>
-    <t>fresh|tasty|food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>good|food</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice|time|service</t>
-  </si>
-  <si>
-    <t>like|food</t>
-  </si>
-  <si>
-    <t>nice|ambience|best|casual|would</t>
-  </si>
-  <si>
-    <t>ever|view</t>
-  </si>
-  <si>
-    <t>price|rice|even|great|service|food</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>pizza|cheese|even</t>
-  </si>
-  <si>
-    <t>price|pizza|rice</t>
-  </si>
-  <si>
-    <t>pizza|even|good</t>
-  </si>
-  <si>
-    <t>meal</t>
-  </si>
-  <si>
-    <t>amazing|ever|wine|menu|good|great|food</t>
-  </si>
-  <si>
-    <t>dish|delicious|fresh</t>
-  </si>
-  <si>
-    <t>ever|portion|best|great</t>
-  </si>
-  <si>
-    <t>ever|never|staff|friendly|well</t>
-  </si>
-  <si>
-    <t>portion|delicious|decor|excellent|great|service|food</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>time|place|wine|great|service|food</t>
-  </si>
-  <si>
-    <t>wait|would</t>
-  </si>
-  <si>
-    <t>fast|great|service</t>
-  </si>
-  <si>
-    <t>time|friendly</t>
-  </si>
-  <si>
-    <t>pizza|like</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>view|good</t>
-  </si>
-  <si>
-    <t>wait|food</t>
-  </si>
-  <si>
-    <t>friendly|great|service</t>
-  </si>
-  <si>
-    <t>pizza|service</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>sushi|best</t>
-  </si>
-  <si>
-    <t>place|food</t>
-  </si>
-  <si>
-    <t>price|rice|atmosphere|great</t>
-  </si>
-  <si>
-    <t>amazing|service|food</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best|good|food</t>
-  </si>
-  <si>
-    <t>pizza|like|best|fresh</t>
-  </si>
-  <si>
-    <t>view|great|food</t>
-  </si>
-  <si>
-    <t>nice|recommend|high|special|service</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>price|rice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>delicious|food</t>
-  </si>
-  <si>
-    <t>staff|attentive</t>
-  </si>
-  <si>
-    <t>ever|special</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>atmosphere|even</t>
-  </si>
-  <si>
-    <t>service|food</t>
-  </si>
-  <si>
-    <t>pizza|cheese|delicious|fresh</t>
-  </si>
-  <si>
-    <t>nice|menu|would</t>
-  </si>
-  <si>
-    <t>staff|best|wait</t>
-  </si>
-  <si>
-    <t>restaurant|fast|salad|food</t>
-  </si>
-  <si>
-    <t>cheese|service</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>bagel|would</t>
-  </si>
-  <si>
-    <t>attentive|good|service</t>
-  </si>
-  <si>
-    <t>well|good|food</t>
-  </si>
-  <si>
-    <t>restaurant|even</t>
-  </si>
-  <si>
-    <t>fresh|good|food</t>
-  </si>
-  <si>
-    <t>ever|decor|great</t>
-  </si>
-  <si>
-    <t>atmosphere|time|salad</t>
-  </si>
-  <si>
-    <t>meal|best</t>
-  </si>
-  <si>
-    <t>made|delicious|food</t>
-  </si>
-  <si>
-    <t>drink|food</t>
-  </si>
-  <si>
-    <t>place|made|decor|good</t>
-  </si>
-  <si>
-    <t>made|dish|recommend|delicious|food</t>
-  </si>
-  <si>
-    <t>bagel</t>
-  </si>
-  <si>
-    <t>bagel|cheese|absolutely</t>
-  </si>
-  <si>
-    <t>time|service|food</t>
-  </si>
-  <si>
-    <t>recommend|high|fresh</t>
-  </si>
-  <si>
-    <t>pizza|fish|salad</t>
-  </si>
-  <si>
-    <t>ambience|recommend|high|service|food</t>
-  </si>
-  <si>
-    <t>staff|absolutely</t>
-  </si>
-  <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>ever|delicious|thing</t>
-  </si>
-  <si>
-    <t>salad|delicious|fresh</t>
-  </si>
-  <si>
-    <t>amazing|fish|special</t>
-  </si>
-  <si>
     <t>atmosphere|like</t>
   </si>
   <si>
-    <t>ambience|good</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>salad|great</t>
+    <t>sushi|good|really</t>
+  </si>
+  <si>
+    <t>price|best</t>
+  </si>
+  <si>
+    <t>food|menu|going</t>
+  </si>
+  <si>
+    <t>price|dish</t>
+  </si>
+  <si>
+    <t>high|great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh|dish</t>
+  </si>
+  <si>
+    <t>food|place|delicious|absolutely|staff</t>
+  </si>
+  <si>
+    <t>service|food|good</t>
+  </si>
+  <si>
+    <t>atmosphere|place|dish</t>
+  </si>
+  <si>
+    <t>good|place|nice|pizza</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>service|food|restaurant|view|excellent</t>
+  </si>
+  <si>
+    <t>sushi|amazing</t>
+  </si>
+  <si>
+    <t>good|place|meal</t>
+  </si>
+  <si>
+    <t>service|place|excellent|really|pizza</t>
+  </si>
+  <si>
+    <t>place|restaurant|nice</t>
+  </si>
+  <si>
+    <t>place|view</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>service|atmosphere|food|great|restaurant</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>service|menu|meal|staff</t>
+  </si>
+  <si>
+    <t>restaurant|meal</t>
+  </si>
+  <si>
+    <t>service|view</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>food|menu|amazing</t>
+  </si>
+  <si>
+    <t>price|food|good|like|menu|great</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>place|great|pizza</t>
+  </si>
+  <si>
+    <t>great|pizza</t>
+  </si>
+  <si>
+    <t>service|sushi|friendly|great|excellent</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>fresh|always</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>food|like|restaurant</t>
+  </si>
+  <si>
+    <t>atmosphere|sushi|like</t>
+  </si>
+  <si>
+    <t>fresh|food|menu</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>food|delicious|menu|dish</t>
+  </si>
+  <si>
+    <t>service|value|food</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>best|pizza</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>dish|best</t>
+  </si>
+  <si>
+    <t>fresh|menu</t>
+  </si>
+  <si>
+    <t>nice|staff</t>
+  </si>
+  <si>
+    <t>delicious|meal</t>
+  </si>
+  <si>
+    <t>atmosphere|food</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>food|appropriate</t>
+  </si>
+  <si>
+    <t>friendly|staff</t>
+  </si>
+  <si>
+    <t>menu|dish|excellent</t>
+  </si>
+  <si>
+    <t>high|price|food|good</t>
+  </si>
+  <si>
+    <t>price|good</t>
+  </si>
+  <si>
+    <t>service|food|delicious</t>
+  </si>
+  <si>
+    <t>food|place|view</t>
+  </si>
+  <si>
+    <t>food|nice</t>
+  </si>
+  <si>
+    <t>food|excellent</t>
+  </si>
+  <si>
+    <t>delicious|always</t>
+  </si>
+  <si>
+    <t>atmosphere|great|view|would</t>
+  </si>
+  <si>
+    <t>food|good|place|great</t>
+  </si>
+  <si>
+    <t>like|staff</t>
+  </si>
+  <si>
+    <t>price|food|great|really</t>
+  </si>
+  <si>
+    <t>like|would</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>service|atmosphere|friendly|good|delicious|dish|excellent</t>
+  </si>
+  <si>
+    <t>food|staff</t>
+  </si>
+  <si>
+    <t>price|food|great|reasonably</t>
+  </si>
+  <si>
+    <t>nice|staff|really</t>
+  </si>
+  <si>
+    <t>relaxed|staff</t>
+  </si>
+  <si>
+    <t>high|service|delicious</t>
+  </si>
+  <si>
+    <t>friendly|meal|staff</t>
+  </si>
+  <si>
+    <t>food|dish</t>
+  </si>
+  <si>
+    <t>nice|excellent</t>
+  </si>
+  <si>
+    <t>food|would</t>
+  </si>
+  <si>
+    <t>food|place|restaurant|really</t>
+  </si>
+  <si>
+    <t>nice|excellent|pizza</t>
+  </si>
+  <si>
+    <t>service|food|good|menu|great</t>
+  </si>
+  <si>
+    <t>fresh|dish|best|amazing</t>
+  </si>
+  <si>
+    <t>fresh|best</t>
+  </si>
+  <si>
+    <t>service|food|delicious|excellent</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>food|good|dish</t>
+  </si>
+  <si>
+    <t>service|food|great</t>
+  </si>
+  <si>
+    <t>good|like|great|really</t>
+  </si>
+  <si>
+    <t>service|food|friendly</t>
+  </si>
+  <si>
+    <t>fresh|friendly|staff</t>
+  </si>
+  <si>
+    <t>fresh|really</t>
+  </si>
+  <si>
+    <t>high|pizza</t>
+  </si>
+  <si>
+    <t>service|food|best</t>
+  </si>
+  <si>
+    <t>service|food|place|great</t>
+  </si>
+  <si>
+    <t>service|great|excellent</t>
+  </si>
+  <si>
+    <t>food|sushi|delicious</t>
+  </si>
+  <si>
+    <t>service|always|best</t>
+  </si>
+  <si>
+    <t>like|dish</t>
+  </si>
+  <si>
+    <t>atmosphere|food|delicious|nice</t>
+  </si>
+  <si>
+    <t>like|really</t>
+  </si>
+  <si>
+    <t>service|atmosphere|food</t>
+  </si>
+  <si>
+    <t>food|best</t>
+  </si>
+  <si>
+    <t>food|good|delicious|dish</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>sushi|great</t>
+  </si>
+  <si>
+    <t>good|great|really</t>
+  </si>
+  <si>
+    <t>delicious|nice|pizza</t>
+  </si>
+  <si>
+    <t>like|great</t>
+  </si>
+  <si>
+    <t>delicious|menu</t>
+  </si>
+  <si>
+    <t>atmosphere|best</t>
+  </si>
+  <si>
+    <t>restaurant|staff</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>great|restaurant|meal</t>
+  </si>
+  <si>
+    <t>service|place|would</t>
+  </si>
+  <si>
+    <t>price|great</t>
+  </si>
+  <si>
+    <t>place|like|staff|excellent</t>
+  </si>
+  <si>
+    <t>service|place|great</t>
+  </si>
+  <si>
+    <t>food|absolutely|amazing</t>
+  </si>
+  <si>
+    <t>price|reasonably|meal</t>
+  </si>
+  <si>
+    <t>food|great|excellent</t>
+  </si>
+  <si>
+    <t>plentiful|excellent</t>
+  </si>
+  <si>
+    <t>place|best</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>service|food|friendly|meal|best</t>
+  </si>
+  <si>
+    <t>price|food|good|great</t>
+  </si>
+  <si>
+    <t>service|atmosphere|food|great</t>
+  </si>
+  <si>
+    <t>service|atmosphere|like|excellent</t>
+  </si>
+  <si>
+    <t>atmosphere|good</t>
+  </si>
+  <si>
+    <t>service|atmosphere|good|nice</t>
+  </si>
+  <si>
+    <t>fresh|food|amazing|pizza</t>
+  </si>
+  <si>
+    <t>service|friendly|best</t>
+  </si>
+  <si>
+    <t>place|amazing</t>
+  </si>
+  <si>
+    <t>service|food|good|nice|excellent</t>
+  </si>
+  <si>
+    <t>service|atmosphere|best</t>
   </si>
   <si>
     <t>sushi|good</t>
   </si>
   <si>
-    <t>price|rice|best</t>
-  </si>
-  <si>
-    <t>well|good</t>
-  </si>
-  <si>
-    <t>ever|menu|going|food</t>
-  </si>
-  <si>
-    <t>price|rice|great|service|food</t>
-  </si>
-  <si>
-    <t>atmosphere|fast|wait|thing</t>
-  </si>
-  <si>
-    <t>price|rice|dish</t>
-  </si>
-  <si>
-    <t>well|high|great</t>
-  </si>
-  <si>
-    <t>nice|cheese|salad|tasty</t>
-  </si>
-  <si>
-    <t>time|dish|fresh</t>
-  </si>
-  <si>
-    <t>staff|place|absolutely|delicious|food</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>time|good|service|food</t>
-  </si>
-  <si>
-    <t>atmosphere|place|dish|wine</t>
-  </si>
-  <si>
-    <t>pizza|nice|place|good</t>
-  </si>
-  <si>
-    <t>cheese|delicious</t>
-  </si>
-  <si>
-    <t>friendly|service</t>
-  </si>
-  <si>
-    <t>nice|place</t>
-  </si>
-  <si>
-    <t>pizza|made</t>
-  </si>
-  <si>
-    <t>ambience|service</t>
-  </si>
-  <si>
-    <t>ambience|great|service</t>
-  </si>
-  <si>
-    <t>time|view|restaurant|excellent|service|food</t>
-  </si>
-  <si>
-    <t>ambience|like</t>
-  </si>
-  <si>
-    <t>amazing|sushi</t>
-  </si>
-  <si>
-    <t>ambience|excellent</t>
-  </si>
-  <si>
-    <t>place|meal|good</t>
-  </si>
-  <si>
-    <t>ever|place|good</t>
-  </si>
-  <si>
-    <t>pizza|place|made|wine|excellent|service</t>
-  </si>
-  <si>
-    <t>nice|ever|place|restaurant</t>
-  </si>
-  <si>
-    <t>place|view</t>
-  </si>
-  <si>
-    <t>made|meal</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>ever|never|fish|delicious|fresh|service</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>atmosphere|restaurant|thing|great|service|food</t>
-  </si>
-  <si>
-    <t>fresh|food</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff|meal|menu|service</t>
-  </si>
-  <si>
-    <t>restaurant|meal</t>
-  </si>
-  <si>
-    <t>view|service</t>
-  </si>
-  <si>
-    <t>staff|service</t>
-  </si>
-  <si>
-    <t>portion</t>
-  </si>
-  <si>
-    <t>amazing|wine|menu|special|food</t>
-  </si>
-  <si>
-    <t>price|rice|like|menu|good|great|food</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>ever|never|restaurant</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>portion|good|food</t>
-  </si>
-  <si>
-    <t>wait|service|food</t>
-  </si>
-  <si>
-    <t>pizza|place|great</t>
-  </si>
-  <si>
-    <t>pizza|great</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>friendly|fast|sushi|excellent|great|service</t>
-  </si>
-  <si>
-    <t>bagel|best</t>
-  </si>
-  <si>
-    <t>cheese|salad|great</t>
-  </si>
-  <si>
-    <t>nice|ambience|great|service</t>
-  </si>
-  <si>
-    <t>restaurant|like|food</t>
-  </si>
-  <si>
-    <t>atmosphere|like|sushi|special|thing</t>
-  </si>
-  <si>
-    <t>ever|menu|fresh|thing|food</t>
-  </si>
-  <si>
-    <t>price|rice|service|food</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wine|good|service</t>
-  </si>
-  <si>
-    <t>ever|never|dish|delicious|menu|special|food</t>
-  </si>
-  <si>
-    <t>price|rice|wine|food</t>
-  </si>
-  <si>
-    <t>ever|time|value|service|food</t>
-  </si>
-  <si>
-    <t>attentive|friendly|excellent|service</t>
-  </si>
-  <si>
-    <t>pizza|cheese|best</t>
-  </si>
-  <si>
-    <t>staff|great</t>
-  </si>
-  <si>
-    <t>ever|wait|thing</t>
-  </si>
-  <si>
-    <t>dish|best</t>
-  </si>
-  <si>
-    <t>nice|decor|service</t>
-  </si>
-  <si>
-    <t>rice|fish|fresh</t>
-  </si>
-  <si>
-    <t>ever|sushi</t>
-  </si>
-  <si>
-    <t>rice|fish|menu|fresh</t>
-  </si>
-  <si>
-    <t>rice|fish|even|thing</t>
-  </si>
-  <si>
-    <t>nice|staff|wait</t>
-  </si>
-  <si>
-    <t>time|service</t>
-  </si>
-  <si>
-    <t>would|thing</t>
-  </si>
-  <si>
-    <t>meal|delicious</t>
-  </si>
-  <si>
-    <t>attentive|service</t>
-  </si>
-  <si>
-    <t>atmosphere|drink|food</t>
-  </si>
-  <si>
-    <t>price|rice|thai</t>
-  </si>
-  <si>
-    <t>portion|great|food</t>
-  </si>
-  <si>
-    <t>like|thing</t>
-  </si>
-  <si>
-    <t>atmosphere</t>
-  </si>
-  <si>
-    <t>nice|staff|great</t>
-  </si>
-  <si>
-    <t>portion|appropriate|tasty|food</t>
-  </si>
-  <si>
-    <t>fish|fresh</t>
-  </si>
-  <si>
-    <t>staff|friendly|wait</t>
-  </si>
-  <si>
-    <t>dish|menu|excellent</t>
-  </si>
-  <si>
-    <t>ambience|good|service</t>
-  </si>
-  <si>
-    <t>price|rice|even|high|good|food</t>
-  </si>
-  <si>
-    <t>price|rice|good</t>
-  </si>
-  <si>
-    <t>delicious|special|service|food</t>
-  </si>
-  <si>
-    <t>attentive|wait</t>
-  </si>
-  <si>
-    <t>thai|place|view|food</t>
-  </si>
-  <si>
-    <t>fish|recommend</t>
-  </si>
-  <si>
-    <t>nice|wait|food</t>
-  </si>
-  <si>
-    <t>ever|excellent|food</t>
-  </si>
-  <si>
-    <t>cheese|great</t>
-  </si>
-  <si>
-    <t>delicious|special</t>
-  </si>
-  <si>
-    <t>atmosphere|view|would|great</t>
-  </si>
-  <si>
-    <t>place|good|great|food</t>
-  </si>
-  <si>
-    <t>staff|like|wait</t>
-  </si>
-  <si>
-    <t>ever|wait|thing|service</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>pizza|good</t>
-  </si>
-  <si>
-    <t>salad|meal|delicious</t>
-  </si>
-  <si>
-    <t>decor</t>
-  </si>
-  <si>
-    <t>price|rice|ambience|great|tasty|food</t>
-  </si>
-  <si>
-    <t>thai|recommend|like|would</t>
-  </si>
-  <si>
-    <t>ever|restaurant|service</t>
-  </si>
-  <si>
-    <t>atmosphere|dish|friendly|delicious|excellent|good|service</t>
-  </si>
-  <si>
-    <t>drink|ever|staff|thing|food</t>
-  </si>
-  <si>
-    <t>price|rice|reasonably|great|food</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>ever|staff|like|wait</t>
-  </si>
-  <si>
-    <t>staff|time|made|relaxed|wait</t>
-  </si>
-  <si>
-    <t>recommend|delicious|high|service</t>
-  </si>
-  <si>
-    <t>ever|made|fresh|thing</t>
-  </si>
-  <si>
-    <t>staff|friendly|meal</t>
-  </si>
-  <si>
-    <t>dish|food</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dish|tasty|food</t>
-  </si>
-  <si>
-    <t>good|service</t>
-  </si>
-  <si>
-    <t>nice|ever|cheese|excellent</t>
-  </si>
-  <si>
-    <t>recommend|would|food</t>
-  </si>
-  <si>
-    <t>made|like</t>
-  </si>
-  <si>
-    <t>place|restaurant|food</t>
-  </si>
-  <si>
-    <t>time|dish|food</t>
-  </si>
-  <si>
-    <t>thai|place|good</t>
-  </si>
-  <si>
-    <t>pizza|nice|ever|never|cheese|excellent</t>
-  </si>
-  <si>
-    <t>ever|portion|even|best</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>menu|good|great|service|food</t>
-  </si>
-  <si>
-    <t>amazing|ever|dish|best|fresh|tasty</t>
-  </si>
-  <si>
-    <t>fast|best|fresh</t>
-  </si>
-  <si>
-    <t>delicious|excellent|service|food</t>
-  </si>
-  <si>
-    <t>ever|sushi|special</t>
-  </si>
-  <si>
-    <t>thai|good|food</t>
-  </si>
-  <si>
-    <t>excellent|service</t>
-  </si>
-  <si>
-    <t>nice|wait</t>
-  </si>
-  <si>
-    <t>drink|dish|thing|good|food</t>
-  </si>
-  <si>
-    <t>recommend|wait|great</t>
-  </si>
-  <si>
-    <t>great|service|food</t>
-  </si>
-  <si>
-    <t>like|good|great</t>
-  </si>
-  <si>
-    <t>friendly|service|food</t>
-  </si>
-  <si>
-    <t>pizza|best</t>
-  </si>
-  <si>
-    <t>staff|friendly|fresh</t>
-  </si>
-  <si>
-    <t>fish|menu</t>
-  </si>
-  <si>
-    <t>price|pizza|rice|even</t>
-  </si>
-  <si>
-    <t>pizza|recommend|high</t>
-  </si>
-  <si>
-    <t>ever|never|made|best|service|food</t>
-  </si>
-  <si>
-    <t>place|great|service|food</t>
-  </si>
-  <si>
-    <t>time|sushi</t>
-  </si>
-  <si>
-    <t>decor|thing|excellent|great|service</t>
-  </si>
-  <si>
-    <t>delicious|sushi|food</t>
-  </si>
-  <si>
-    <t>attentive|best|service</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>dish|like</t>
-  </si>
-  <si>
-    <t>nice|atmosphere|delicious|food</t>
-  </si>
-  <si>
-    <t>staff|attentive|wait</t>
-  </si>
-  <si>
-    <t>place|even|good|great|food</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>atmosphere|service|food</t>
-  </si>
-  <si>
-    <t>ever|best|food</t>
-  </si>
-  <si>
-    <t>drink|dish|delicious|special|good|food</t>
-  </si>
-  <si>
-    <t>place|great</t>
-  </si>
-  <si>
-    <t>sushi|great</t>
-  </si>
-  <si>
-    <t>bagel|ever|good|great|tasty</t>
-  </si>
-  <si>
-    <t>pizza|thing</t>
-  </si>
-  <si>
-    <t>pizza|nice|delicious</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>rice|sushi</t>
-  </si>
-  <si>
-    <t>fast|good|service</t>
-  </si>
-  <si>
-    <t>place|well|even</t>
-  </si>
-  <si>
-    <t>like|great</t>
-  </si>
-  <si>
-    <t>pizza|special</t>
-  </si>
-  <si>
-    <t>ever|great</t>
-  </si>
-  <si>
-    <t>staff|best</t>
-  </si>
-  <si>
-    <t>price|rice|moderate|food</t>
-  </si>
-  <si>
-    <t>thai|food</t>
-  </si>
-  <si>
-    <t>thai|delicious|menu|thing</t>
-  </si>
-  <si>
-    <t>good|service|food</t>
-  </si>
-  <si>
-    <t>salad|good</t>
-  </si>
-  <si>
-    <t>staff|wait</t>
-  </si>
-  <si>
-    <t>special|food</t>
-  </si>
-  <si>
-    <t>atmosphere|best</t>
-  </si>
-  <si>
-    <t>drink|recommend|great</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>staff|restaurant</t>
-  </si>
-  <si>
-    <t>casual</t>
-  </si>
-  <si>
-    <t>excellent|food</t>
-  </si>
-  <si>
-    <t>atmosphere|like|wait</t>
-  </si>
-  <si>
-    <t>wine|special|excellent</t>
-  </si>
-  <si>
-    <t>restaurant|meal|thing|great</t>
-  </si>
-  <si>
-    <t>ever|thai|delicious</t>
-  </si>
-  <si>
-    <t>place|would|service</t>
-  </si>
-  <si>
-    <t>bagel|delicious|special</t>
-  </si>
-  <si>
-    <t>price|rice|great</t>
-  </si>
-  <si>
-    <t>friendly|fast|service</t>
-  </si>
-  <si>
-    <t>ambience|well|best|thing|food</t>
-  </si>
-  <si>
-    <t>staff|time|place|ambience|like|excellent</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>ever|never|place|great|service</t>
-  </si>
-  <si>
-    <t>bagel|special</t>
-  </si>
-  <si>
-    <t>bagel|made|great</t>
-  </si>
-  <si>
-    <t>amazing|absolutely|food</t>
-  </si>
-  <si>
-    <t>ever|best</t>
-  </si>
-  <si>
-    <t>ever|friendly|service</t>
-  </si>
-  <si>
-    <t>portion|restaurant</t>
-  </si>
-  <si>
-    <t>special|excellent</t>
-  </si>
-  <si>
-    <t>price|rice|reasonably|wine|meal</t>
-  </si>
-  <si>
-    <t>decor|great|service|food</t>
-  </si>
-  <si>
-    <t>excellent|great|food</t>
-  </si>
-  <si>
-    <t>plentiful|excellent</t>
-  </si>
-  <si>
-    <t>thing|service|food</t>
-  </si>
-  <si>
-    <t>place|best</t>
-  </si>
-  <si>
-    <t>rice|dish|recommend</t>
-  </si>
-  <si>
-    <t>ever|never|high</t>
-  </si>
-  <si>
-    <t>friendly|tasty|service|food</t>
-  </si>
-  <si>
-    <t>friendly|fast|meal|best|tasty|service|food</t>
-  </si>
-  <si>
-    <t>ever|never|like</t>
-  </si>
-  <si>
-    <t>price|rice|wine|good|great|food</t>
-  </si>
-  <si>
-    <t>atmosphere|great|service|food</t>
-  </si>
-  <si>
-    <t>ever|never|friendly|service</t>
-  </si>
-  <si>
-    <t>price|rice|ever|thing|good</t>
-  </si>
-  <si>
-    <t>atmosphere|ever|like|excellent|service</t>
-  </si>
-  <si>
-    <t>ever|thai|best</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>ever|fish|cheese|salad|thing</t>
-  </si>
-  <si>
-    <t>nice|atmosphere|good|service</t>
-  </si>
-  <si>
-    <t>amazing|pizza|fresh|food</t>
-  </si>
-  <si>
-    <t>friendly|fast|best|service</t>
-  </si>
-  <si>
-    <t>amazing|place</t>
-  </si>
-  <si>
-    <t>ever|good|food</t>
-  </si>
-  <si>
-    <t>thai|best|food</t>
-  </si>
-  <si>
-    <t>nice|decor|excellent|good|service|food</t>
-  </si>
-  <si>
-    <t>rice|best</t>
-  </si>
-  <si>
-    <t>best|food</t>
-  </si>
-  <si>
-    <t>atmosphere|best|service</t>
-  </si>
-  <si>
-    <t>portion|sushi|good</t>
-  </si>
-  <si>
-    <t>decor|excellent</t>
-  </si>
-  <si>
-    <t>price|rice|great|food</t>
-  </si>
-  <si>
-    <t>ever|never|dish</t>
+    <t>price|food|great</t>
+  </si>
+  <si>
+    <t>dish|always</t>
   </si>
   <si>
     <t>like|delicious</t>
   </si>
   <si>
-    <t>price|rice|good|food</t>
-  </si>
-  <si>
-    <t>drink|good|service</t>
-  </si>
-  <si>
-    <t>nice|atmosphere|relaxed</t>
-  </si>
-  <si>
-    <t>tasty</t>
-  </si>
-  <si>
-    <t>wine|wait</t>
-  </si>
-  <si>
-    <t>drink|even|wait|would</t>
-  </si>
-  <si>
-    <t>price|rice|staff|restaurant|wait|good|service|food</t>
-  </si>
-  <si>
-    <t>attentive|friendly</t>
-  </si>
-  <si>
-    <t>relaxed|excellent|great|service|food</t>
-  </si>
-  <si>
-    <t>view|like|even|good|food</t>
-  </si>
-  <si>
-    <t>recommend|high|would</t>
-  </si>
-  <si>
-    <t>place|like|would|good|service</t>
-  </si>
-  <si>
-    <t>ever|never</t>
-  </si>
-  <si>
-    <t>pizza|would|tasty</t>
-  </si>
-  <si>
-    <t>wine|decor|good|service</t>
+    <t>price|food|good</t>
+  </si>
+  <si>
+    <t>service|good|always</t>
+  </si>
+  <si>
+    <t>atmosphere|relaxed|nice</t>
+  </si>
+  <si>
+    <t>service|price|food|good|restaurant|staff</t>
+  </si>
+  <si>
+    <t>service|food|relaxed|great|excellent</t>
+  </si>
+  <si>
+    <t>food|good|like|view</t>
+  </si>
+  <si>
+    <t>high|would</t>
+  </si>
+  <si>
+    <t>service|good|place|like|would</t>
+  </si>
+  <si>
+    <t>would|pizza</t>
   </si>
   <si>
     <t>going</t>
   </si>
   <si>
-    <t>staff|thing|good|great|service</t>
-  </si>
-  <si>
-    <t>amazing|even</t>
-  </si>
-  <si>
-    <t>pizza|menu|best</t>
-  </si>
-  <si>
-    <t>ever|never|meal</t>
-  </si>
-  <si>
-    <t>made|meal|menu</t>
-  </si>
-  <si>
-    <t>nice|view</t>
-  </si>
-  <si>
-    <t>nice|great</t>
-  </si>
-  <si>
-    <t>amazing|atmosphere|place</t>
-  </si>
-  <si>
-    <t>nice|atmosphere|place|great</t>
-  </si>
-  <si>
-    <t>place|value</t>
-  </si>
-  <si>
-    <t>amazing|atmosphere</t>
-  </si>
-  <si>
-    <t>atmosphere|restaurant|decor|great</t>
-  </si>
-  <si>
-    <t>restaurant|great</t>
+    <t>service|good|great|staff</t>
+  </si>
+  <si>
+    <t>menu|best|pizza</t>
+  </si>
+  <si>
+    <t>menu|meal</t>
+  </si>
+  <si>
+    <t>view|nice</t>
+  </si>
+  <si>
+    <t>great|nice</t>
+  </si>
+  <si>
+    <t>atmosphere|place|amazing</t>
+  </si>
+  <si>
+    <t>atmosphere|place|great|nice</t>
+  </si>
+  <si>
+    <t>value|place</t>
+  </si>
+  <si>
+    <t>atmosphere|amazing</t>
+  </si>
+  <si>
+    <t>atmosphere|great|restaurant</t>
+  </si>
+  <si>
+    <t>great|restaurant</t>
   </si>
 </sst>
 </file>
@@ -5946,9 +5514,6 @@
       <c r="D145" t="s">
         <v>596</v>
       </c>
-      <c r="E145" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
@@ -5964,7 +5529,7 @@
         <v>595</v>
       </c>
       <c r="E146" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5980,9 +5545,6 @@
       <c r="D147" t="s">
         <v>596</v>
       </c>
-      <c r="E147" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
@@ -5997,9 +5559,6 @@
       <c r="D148" t="s">
         <v>595</v>
       </c>
-      <c r="E148" t="s">
-        <v>662</v>
-      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
@@ -6015,7 +5574,7 @@
         <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6032,7 +5591,7 @@
         <v>595</v>
       </c>
       <c r="E150" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6049,7 +5608,7 @@
         <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6066,7 +5625,7 @@
         <v>596</v>
       </c>
       <c r="E152" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6083,7 +5642,7 @@
         <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6100,7 +5659,7 @@
         <v>588</v>
       </c>
       <c r="E154" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6117,7 +5676,7 @@
         <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6134,7 +5693,7 @@
         <v>594</v>
       </c>
       <c r="E156" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6151,7 +5710,7 @@
         <v>596</v>
       </c>
       <c r="E157" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6168,7 +5727,7 @@
         <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6185,7 +5744,7 @@
         <v>596</v>
       </c>
       <c r="E159" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6202,7 +5761,7 @@
         <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6219,7 +5778,7 @@
         <v>596</v>
       </c>
       <c r="E161" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6236,7 +5795,7 @@
         <v>596</v>
       </c>
       <c r="E162" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6253,7 +5812,7 @@
         <v>600</v>
       </c>
       <c r="E163" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6270,7 +5829,7 @@
         <v>587</v>
       </c>
       <c r="E164" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6287,7 +5846,7 @@
         <v>587</v>
       </c>
       <c r="E165" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6304,7 +5863,7 @@
         <v>596</v>
       </c>
       <c r="E166" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6321,7 +5880,7 @@
         <v>596</v>
       </c>
       <c r="E167" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6338,7 +5897,7 @@
         <v>601</v>
       </c>
       <c r="E168" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6355,7 +5914,7 @@
         <v>594</v>
       </c>
       <c r="E169" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6372,7 +5931,7 @@
         <v>596</v>
       </c>
       <c r="E170" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6389,7 +5948,7 @@
         <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6406,7 +5965,7 @@
         <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6423,7 +5982,7 @@
         <v>602</v>
       </c>
       <c r="E173" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6468,7 +6027,7 @@
         <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6485,7 +6044,7 @@
         <v>603</v>
       </c>
       <c r="E177" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6502,7 +6061,7 @@
         <v>595</v>
       </c>
       <c r="E178" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6519,7 +6078,7 @@
         <v>584</v>
       </c>
       <c r="E179" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6536,7 +6095,7 @@
         <v>604</v>
       </c>
       <c r="E180" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6553,7 +6112,7 @@
         <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6570,7 +6129,7 @@
         <v>604</v>
       </c>
       <c r="E182" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6587,7 +6146,7 @@
         <v>596</v>
       </c>
       <c r="E183" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6604,7 +6163,7 @@
         <v>595</v>
       </c>
       <c r="E184" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6635,7 +6194,7 @@
         <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6652,7 +6211,7 @@
         <v>605</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6669,7 +6228,7 @@
         <v>588</v>
       </c>
       <c r="E188" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6700,7 +6259,7 @@
         <v>596</v>
       </c>
       <c r="E190" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6717,7 +6276,7 @@
         <v>606</v>
       </c>
       <c r="E191" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6734,7 +6293,7 @@
         <v>594</v>
       </c>
       <c r="E192" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6751,7 +6310,7 @@
         <v>594</v>
       </c>
       <c r="E193" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6768,7 +6327,7 @@
         <v>594</v>
       </c>
       <c r="E194" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6785,7 +6344,7 @@
         <v>607</v>
       </c>
       <c r="E195" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6802,7 +6361,7 @@
         <v>583</v>
       </c>
       <c r="E196" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6819,7 +6378,7 @@
         <v>596</v>
       </c>
       <c r="E197" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6836,7 +6395,7 @@
         <v>595</v>
       </c>
       <c r="E198" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6853,7 +6412,7 @@
         <v>597</v>
       </c>
       <c r="E199" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6870,7 +6429,7 @@
         <v>594</v>
       </c>
       <c r="E200" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6887,7 +6446,7 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6903,9 +6462,6 @@
       <c r="D202" t="s">
         <v>594</v>
       </c>
-      <c r="E202" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
@@ -6921,7 +6477,7 @@
         <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6938,7 +6494,7 @@
         <v>608</v>
       </c>
       <c r="E204" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6955,7 +6511,7 @@
         <v>588</v>
       </c>
       <c r="E205" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6986,7 +6542,7 @@
         <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7003,7 +6559,7 @@
         <v>596</v>
       </c>
       <c r="E208" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7020,7 +6576,7 @@
         <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7037,7 +6593,7 @@
         <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7054,7 +6610,7 @@
         <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7071,7 +6627,7 @@
         <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7088,7 +6644,7 @@
         <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7105,7 +6661,7 @@
         <v>595</v>
       </c>
       <c r="E214" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7136,7 +6692,7 @@
         <v>587</v>
       </c>
       <c r="E216" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7153,7 +6709,7 @@
         <v>588</v>
       </c>
       <c r="E217" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7170,7 +6726,7 @@
         <v>588</v>
       </c>
       <c r="E218" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7187,7 +6743,7 @@
         <v>595</v>
       </c>
       <c r="E219" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7204,7 +6760,7 @@
         <v>594</v>
       </c>
       <c r="E220" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7220,9 +6776,6 @@
       <c r="D221" t="s">
         <v>609</v>
       </c>
-      <c r="E221" t="s">
-        <v>723</v>
-      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
@@ -7238,7 +6791,7 @@
         <v>594</v>
       </c>
       <c r="E222" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7255,7 +6808,7 @@
         <v>596</v>
       </c>
       <c r="E223" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7286,7 +6839,7 @@
         <v>588</v>
       </c>
       <c r="E225" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7303,7 +6856,7 @@
         <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7320,7 +6873,7 @@
         <v>597</v>
       </c>
       <c r="E227" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7337,7 +6890,7 @@
         <v>595</v>
       </c>
       <c r="E228" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7354,7 +6907,7 @@
         <v>596</v>
       </c>
       <c r="E229" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7371,7 +6924,7 @@
         <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7388,7 +6941,7 @@
         <v>596</v>
       </c>
       <c r="E231" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7405,7 +6958,7 @@
         <v>596</v>
       </c>
       <c r="E232" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7422,7 +6975,7 @@
         <v>611</v>
       </c>
       <c r="E233" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7439,7 +6992,7 @@
         <v>594</v>
       </c>
       <c r="E234" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7456,7 +7009,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7473,7 +7026,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7490,7 +7043,7 @@
         <v>595</v>
       </c>
       <c r="E237" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7507,7 +7060,7 @@
         <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7524,7 +7077,7 @@
         <v>594</v>
       </c>
       <c r="E239" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7541,7 +7094,7 @@
         <v>595</v>
       </c>
       <c r="E240" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7558,7 +7111,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7575,7 +7128,7 @@
         <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7592,7 +7145,7 @@
         <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7609,7 +7162,7 @@
         <v>595</v>
       </c>
       <c r="E244" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7626,7 +7179,7 @@
         <v>594</v>
       </c>
       <c r="E245" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7643,7 +7196,7 @@
         <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7660,7 +7213,7 @@
         <v>604</v>
       </c>
       <c r="E247" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7677,7 +7230,7 @@
         <v>588</v>
       </c>
       <c r="E248" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7693,9 +7246,6 @@
       <c r="D249" t="s">
         <v>596</v>
       </c>
-      <c r="E249" t="s">
-        <v>745</v>
-      </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1">
@@ -7711,7 +7261,7 @@
         <v>596</v>
       </c>
       <c r="E250" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7728,7 +7278,7 @@
         <v>600</v>
       </c>
       <c r="E251" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7745,7 +7295,7 @@
         <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7762,7 +7312,7 @@
         <v>604</v>
       </c>
       <c r="E253" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7779,7 +7329,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7796,7 +7346,7 @@
         <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7812,6 +7362,9 @@
       <c r="D256" t="s">
         <v>596</v>
       </c>
+      <c r="E256" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1">
@@ -7827,7 +7380,7 @@
         <v>604</v>
       </c>
       <c r="E257" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7844,7 +7397,7 @@
         <v>596</v>
       </c>
       <c r="E258" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7878,7 +7431,7 @@
         <v>596</v>
       </c>
       <c r="E260" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7895,7 +7448,7 @@
         <v>596</v>
       </c>
       <c r="E261" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7912,7 +7465,7 @@
         <v>588</v>
       </c>
       <c r="E262" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7929,7 +7482,7 @@
         <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7946,7 +7499,7 @@
         <v>588</v>
       </c>
       <c r="E264" t="s">
-        <v>757</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7962,9 +7515,6 @@
       <c r="D265" t="s">
         <v>596</v>
       </c>
-      <c r="E265" t="s">
-        <v>758</v>
-      </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1">
@@ -7980,7 +7530,7 @@
         <v>596</v>
       </c>
       <c r="E266" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8011,7 +7561,7 @@
         <v>584</v>
       </c>
       <c r="E268" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8028,7 +7578,7 @@
         <v>587</v>
       </c>
       <c r="E269" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8045,7 +7595,7 @@
         <v>596</v>
       </c>
       <c r="E270" t="s">
-        <v>762</v>
+        <v>668</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8062,7 +7612,7 @@
         <v>584</v>
       </c>
       <c r="E271" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8079,7 +7629,7 @@
         <v>600</v>
       </c>
       <c r="E272" t="s">
-        <v>764</v>
+        <v>679</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8096,7 +7646,7 @@
         <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>765</v>
+        <v>713</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8113,7 +7663,7 @@
         <v>613</v>
       </c>
       <c r="E274" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8130,7 +7680,7 @@
         <v>594</v>
       </c>
       <c r="E275" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8147,7 +7697,7 @@
         <v>595</v>
       </c>
       <c r="E276" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8164,7 +7714,7 @@
         <v>596</v>
       </c>
       <c r="E277" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8181,7 +7731,7 @@
         <v>614</v>
       </c>
       <c r="E278" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8197,9 +7747,6 @@
       <c r="D279" t="s">
         <v>594</v>
       </c>
-      <c r="E279" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
@@ -8215,7 +7762,7 @@
         <v>615</v>
       </c>
       <c r="E280" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8232,7 +7779,7 @@
         <v>616</v>
       </c>
       <c r="E281" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8249,7 +7796,7 @@
         <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>774</v>
+        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8266,7 +7813,7 @@
         <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8283,7 +7830,7 @@
         <v>596</v>
       </c>
       <c r="E284" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8300,7 +7847,7 @@
         <v>617</v>
       </c>
       <c r="E285" t="s">
-        <v>776</v>
+        <v>662</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8317,7 +7864,7 @@
         <v>588</v>
       </c>
       <c r="E286" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8334,7 +7881,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8351,7 +7898,7 @@
         <v>595</v>
       </c>
       <c r="E288" t="s">
-        <v>778</v>
+        <v>681</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8368,7 +7915,7 @@
         <v>610</v>
       </c>
       <c r="E289" t="s">
-        <v>779</v>
+        <v>664</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8385,7 +7932,7 @@
         <v>596</v>
       </c>
       <c r="E290" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8402,7 +7949,7 @@
         <v>595</v>
       </c>
       <c r="E291" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8419,7 +7966,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="s">
-        <v>780</v>
+        <v>661</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8436,7 +7983,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8453,7 +8000,7 @@
         <v>596</v>
       </c>
       <c r="E294" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8470,7 +8017,7 @@
         <v>588</v>
       </c>
       <c r="E295" t="s">
-        <v>782</v>
+        <v>665</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8487,7 +8034,7 @@
         <v>596</v>
       </c>
       <c r="E296" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8504,7 +8051,7 @@
         <v>588</v>
       </c>
       <c r="E297" t="s">
-        <v>784</v>
+        <v>707</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8521,7 +8068,7 @@
         <v>596</v>
       </c>
       <c r="E298" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8538,7 +8085,7 @@
         <v>588</v>
       </c>
       <c r="E299" t="s">
-        <v>786</v>
+        <v>723</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8555,7 +8102,7 @@
         <v>618</v>
       </c>
       <c r="E300" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8572,7 +8119,7 @@
         <v>588</v>
       </c>
       <c r="E301" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8589,7 +8136,7 @@
         <v>588</v>
       </c>
       <c r="E302" t="s">
-        <v>789</v>
+        <v>752</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8606,7 +8153,7 @@
         <v>594</v>
       </c>
       <c r="E303" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8623,7 +8170,7 @@
         <v>595</v>
       </c>
       <c r="E304" t="s">
-        <v>790</v>
+        <v>684</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8639,9 +8186,6 @@
       <c r="D305" t="s">
         <v>596</v>
       </c>
-      <c r="E305" t="s">
-        <v>791</v>
-      </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1">
@@ -8656,9 +8200,6 @@
       <c r="D306" t="s">
         <v>596</v>
       </c>
-      <c r="E306" t="s">
-        <v>792</v>
-      </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1">
@@ -8674,7 +8215,7 @@
         <v>597</v>
       </c>
       <c r="E307" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8705,7 +8246,7 @@
         <v>596</v>
       </c>
       <c r="E309" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8722,7 +8263,7 @@
         <v>598</v>
       </c>
       <c r="E310" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8739,7 +8280,7 @@
         <v>619</v>
       </c>
       <c r="E311" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8756,7 +8297,7 @@
         <v>596</v>
       </c>
       <c r="E312" t="s">
-        <v>796</v>
+        <v>672</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8773,7 +8314,7 @@
         <v>588</v>
       </c>
       <c r="E313" t="s">
-        <v>797</v>
+        <v>756</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8790,7 +8331,7 @@
         <v>617</v>
       </c>
       <c r="E314" t="s">
-        <v>798</v>
+        <v>757</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8807,7 +8348,7 @@
         <v>607</v>
       </c>
       <c r="E315" t="s">
-        <v>799</v>
+        <v>758</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8824,7 +8365,7 @@
         <v>620</v>
       </c>
       <c r="E316" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8841,7 +8382,7 @@
         <v>594</v>
       </c>
       <c r="E317" t="s">
-        <v>801</v>
+        <v>760</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8858,7 +8399,7 @@
         <v>595</v>
       </c>
       <c r="E318" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8875,7 +8416,7 @@
         <v>596</v>
       </c>
       <c r="E319" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8892,7 +8433,7 @@
         <v>596</v>
       </c>
       <c r="E320" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8909,7 +8450,7 @@
         <v>596</v>
       </c>
       <c r="E321" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8926,7 +8467,7 @@
         <v>597</v>
       </c>
       <c r="E322" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8943,7 +8484,7 @@
         <v>596</v>
       </c>
       <c r="E323" t="s">
-        <v>802</v>
+        <v>761</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8960,7 +8501,7 @@
         <v>604</v>
       </c>
       <c r="E324" t="s">
-        <v>803</v>
+        <v>762</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8977,7 +8518,7 @@
         <v>621</v>
       </c>
       <c r="E325" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8994,7 +8535,7 @@
         <v>596</v>
       </c>
       <c r="E326" t="s">
-        <v>805</v>
+        <v>671</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9010,9 +8551,6 @@
       <c r="D327" t="s">
         <v>596</v>
       </c>
-      <c r="E327" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1">
@@ -9028,7 +8566,7 @@
         <v>588</v>
       </c>
       <c r="E328" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9045,7 +8583,7 @@
         <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>806</v>
+        <v>680</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9062,7 +8600,7 @@
         <v>596</v>
       </c>
       <c r="E330" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9079,7 +8617,7 @@
         <v>596</v>
       </c>
       <c r="E331" t="s">
-        <v>802</v>
+        <v>729</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9096,7 +8634,7 @@
         <v>594</v>
       </c>
       <c r="E332" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9113,7 +8651,7 @@
         <v>595</v>
       </c>
       <c r="E333" t="s">
-        <v>808</v>
+        <v>674</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9130,7 +8668,7 @@
         <v>588</v>
       </c>
       <c r="E334" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9146,6 +8684,9 @@
       <c r="D335" t="s">
         <v>588</v>
       </c>
+      <c r="E335" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1">
@@ -9161,7 +8702,7 @@
         <v>594</v>
       </c>
       <c r="E336" t="s">
-        <v>809</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9178,7 +8719,7 @@
         <v>596</v>
       </c>
       <c r="E337" t="s">
-        <v>810</v>
+        <v>765</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9195,7 +8736,7 @@
         <v>594</v>
       </c>
       <c r="E338" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9212,7 +8753,7 @@
         <v>596</v>
       </c>
       <c r="E339" t="s">
-        <v>811</v>
+        <v>766</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9228,9 +8769,6 @@
       <c r="D340" t="s">
         <v>594</v>
       </c>
-      <c r="E340" t="s">
-        <v>812</v>
-      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1">
@@ -9246,7 +8784,7 @@
         <v>622</v>
       </c>
       <c r="E341" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9263,7 +8801,7 @@
         <v>596</v>
       </c>
       <c r="E342" t="s">
-        <v>814</v>
+        <v>768</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9280,7 +8818,7 @@
         <v>595</v>
       </c>
       <c r="E343" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9297,7 +8835,7 @@
         <v>595</v>
       </c>
       <c r="E344" t="s">
-        <v>815</v>
+        <v>702</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9314,7 +8852,7 @@
         <v>596</v>
       </c>
       <c r="E345" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9331,7 +8869,7 @@
         <v>596</v>
       </c>
       <c r="E346" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9348,7 +8886,7 @@
         <v>610</v>
       </c>
       <c r="E347" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9365,7 +8903,7 @@
         <v>607</v>
       </c>
       <c r="E348" t="s">
-        <v>817</v>
+        <v>771</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9396,7 +8934,7 @@
         <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>818</v>
+        <v>772</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9413,7 +8951,7 @@
         <v>596</v>
       </c>
       <c r="E351" t="s">
-        <v>819</v>
+        <v>773</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9444,7 +8982,7 @@
         <v>597</v>
       </c>
       <c r="E353" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9461,7 +8999,7 @@
         <v>596</v>
       </c>
       <c r="E354" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9477,9 +9015,6 @@
       <c r="D355" t="s">
         <v>596</v>
       </c>
-      <c r="E355" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1">
@@ -9495,7 +9030,7 @@
         <v>600</v>
       </c>
       <c r="E356" t="s">
-        <v>822</v>
+        <v>718</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9512,7 +9047,7 @@
         <v>603</v>
       </c>
       <c r="E357" t="s">
-        <v>823</v>
+        <v>775</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9543,7 +9078,7 @@
         <v>623</v>
       </c>
       <c r="E359" t="s">
-        <v>824</v>
+        <v>641</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9560,7 +9095,7 @@
         <v>600</v>
       </c>
       <c r="E360" t="s">
-        <v>825</v>
+        <v>776</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9577,7 +9112,7 @@
         <v>596</v>
       </c>
       <c r="E361" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9594,7 +9129,7 @@
         <v>594</v>
       </c>
       <c r="E362" t="s">
-        <v>826</v>
+        <v>777</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9611,7 +9146,7 @@
         <v>596</v>
       </c>
       <c r="E363" t="s">
-        <v>827</v>
+        <v>778</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9628,7 +9163,7 @@
         <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>828</v>
+        <v>779</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9645,7 +9180,7 @@
         <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>665</v>
+        <v>780</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9662,7 +9197,7 @@
         <v>596</v>
       </c>
       <c r="E366" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9679,7 +9214,7 @@
         <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9695,9 +9230,6 @@
       <c r="D368" t="s">
         <v>617</v>
       </c>
-      <c r="E368" t="s">
-        <v>829</v>
-      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1">
@@ -9713,7 +9245,7 @@
         <v>584</v>
       </c>
       <c r="E369" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9730,7 +9262,7 @@
         <v>595</v>
       </c>
       <c r="E370" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9747,7 +9279,7 @@
         <v>610</v>
       </c>
       <c r="E371" t="s">
-        <v>831</v>
+        <v>675</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9764,7 +9296,7 @@
         <v>596</v>
       </c>
       <c r="E372" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9781,7 +9313,7 @@
         <v>596</v>
       </c>
       <c r="E373" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9798,7 +9330,7 @@
         <v>595</v>
       </c>
       <c r="E374" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9815,7 +9347,7 @@
         <v>595</v>
       </c>
       <c r="E375" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9832,7 +9364,7 @@
         <v>596</v>
       </c>
       <c r="E376" t="s">
-        <v>833</v>
+        <v>730</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9849,7 +9381,7 @@
         <v>596</v>
       </c>
       <c r="E377" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9866,7 +9398,7 @@
         <v>596</v>
       </c>
       <c r="E378" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9883,7 +9415,7 @@
         <v>603</v>
       </c>
       <c r="E379" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9900,7 +9432,7 @@
         <v>595</v>
       </c>
       <c r="E380" t="s">
-        <v>835</v>
+        <v>729</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9917,7 +9449,7 @@
         <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>836</v>
+        <v>783</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9934,7 +9466,7 @@
         <v>594</v>
       </c>
       <c r="E382" t="s">
-        <v>837</v>
+        <v>664</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9951,7 +9483,7 @@
         <v>596</v>
       </c>
       <c r="E383" t="s">
-        <v>838</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9982,7 +9514,7 @@
         <v>607</v>
       </c>
       <c r="E385" t="s">
-        <v>839</v>
+        <v>784</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9999,7 +9531,7 @@
         <v>594</v>
       </c>
       <c r="E386" t="s">
-        <v>840</v>
+        <v>664</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10016,7 +9548,7 @@
         <v>616</v>
       </c>
       <c r="E387" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10033,7 +9565,7 @@
         <v>596</v>
       </c>
       <c r="E388" t="s">
-        <v>842</v>
+        <v>708</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10050,7 +9582,7 @@
         <v>595</v>
       </c>
       <c r="E389" t="s">
-        <v>843</v>
+        <v>764</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10067,7 +9599,7 @@
         <v>584</v>
       </c>
       <c r="E390" t="s">
-        <v>844</v>
+        <v>665</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10084,7 +9616,7 @@
         <v>588</v>
       </c>
       <c r="E391" t="s">
-        <v>845</v>
+        <v>713</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10101,7 +9633,7 @@
         <v>584</v>
       </c>
       <c r="E392" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10132,7 +9664,7 @@
         <v>610</v>
       </c>
       <c r="E394" t="s">
-        <v>846</v>
+        <v>786</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10149,7 +9681,7 @@
         <v>595</v>
       </c>
       <c r="E395" t="s">
-        <v>847</v>
+        <v>787</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10166,7 +9698,7 @@
         <v>596</v>
       </c>
       <c r="E396" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10183,7 +9715,7 @@
         <v>596</v>
       </c>
       <c r="E397" t="s">
-        <v>848</v>
+        <v>756</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10200,7 +9732,7 @@
         <v>594</v>
       </c>
       <c r="E398" t="s">
-        <v>849</v>
+        <v>788</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10217,7 +9749,7 @@
         <v>595</v>
       </c>
       <c r="E399" t="s">
-        <v>850</v>
+        <v>789</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10234,7 +9766,7 @@
         <v>595</v>
       </c>
       <c r="E400" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10251,7 +9783,7 @@
         <v>598</v>
       </c>
       <c r="E401" t="s">
-        <v>851</v>
+        <v>718</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10268,7 +9800,7 @@
         <v>596</v>
       </c>
       <c r="E402" t="s">
-        <v>852</v>
+        <v>790</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10285,7 +9817,7 @@
         <v>584</v>
       </c>
       <c r="E403" t="s">
-        <v>853</v>
+        <v>791</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10302,7 +9834,7 @@
         <v>611</v>
       </c>
       <c r="E404" t="s">
-        <v>854</v>
+        <v>792</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10318,9 +9850,6 @@
       <c r="D405" t="s">
         <v>594</v>
       </c>
-      <c r="E405" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="1">
@@ -10336,7 +9865,7 @@
         <v>596</v>
       </c>
       <c r="E406" t="s">
-        <v>856</v>
+        <v>793</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10352,9 +9881,6 @@
       <c r="D407" t="s">
         <v>603</v>
       </c>
-      <c r="E407" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="1">
@@ -10370,7 +9896,7 @@
         <v>593</v>
       </c>
       <c r="E408" t="s">
-        <v>858</v>
+        <v>794</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10387,7 +9913,7 @@
         <v>596</v>
       </c>
       <c r="E409" t="s">
-        <v>859</v>
+        <v>795</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10404,7 +9930,7 @@
         <v>587</v>
       </c>
       <c r="E410" t="s">
-        <v>860</v>
+        <v>702</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10435,7 +9961,7 @@
         <v>596</v>
       </c>
       <c r="E412" t="s">
-        <v>861</v>
+        <v>796</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10452,7 +9978,7 @@
         <v>588</v>
       </c>
       <c r="E413" t="s">
-        <v>862</v>
+        <v>797</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10469,7 +9995,7 @@
         <v>624</v>
       </c>
       <c r="E414" t="s">
-        <v>863</v>
+        <v>798</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10486,7 +10012,7 @@
         <v>594</v>
       </c>
       <c r="E415" t="s">
-        <v>864</v>
+        <v>799</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10503,7 +10029,7 @@
         <v>594</v>
       </c>
       <c r="E416" t="s">
-        <v>865</v>
+        <v>664</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10519,9 +10045,6 @@
       <c r="D417" t="s">
         <v>594</v>
       </c>
-      <c r="E417" t="s">
-        <v>866</v>
-      </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="1">
@@ -10536,9 +10059,6 @@
       <c r="D418" t="s">
         <v>594</v>
       </c>
-      <c r="E418" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="1">
@@ -10554,7 +10074,7 @@
         <v>596</v>
       </c>
       <c r="E419" t="s">
-        <v>867</v>
+        <v>683</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10571,7 +10091,7 @@
         <v>596</v>
       </c>
       <c r="E420" t="s">
-        <v>868</v>
+        <v>784</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10587,9 +10107,6 @@
       <c r="D421" t="s">
         <v>588</v>
       </c>
-      <c r="E421" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="1">
@@ -10605,7 +10122,7 @@
         <v>608</v>
       </c>
       <c r="E422" t="s">
-        <v>870</v>
+        <v>800</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10622,7 +10139,7 @@
         <v>596</v>
       </c>
       <c r="E423" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10639,7 +10156,7 @@
         <v>594</v>
       </c>
       <c r="E424" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10656,7 +10173,7 @@
         <v>625</v>
       </c>
       <c r="E425" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10673,7 +10190,7 @@
         <v>618</v>
       </c>
       <c r="E426" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10690,7 +10207,7 @@
         <v>584</v>
       </c>
       <c r="E427" t="s">
-        <v>875</v>
+        <v>805</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10707,7 +10224,7 @@
         <v>588</v>
       </c>
       <c r="E428" t="s">
-        <v>876</v>
+        <v>740</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10724,7 +10241,7 @@
         <v>598</v>
       </c>
       <c r="E429" t="s">
-        <v>877</v>
+        <v>806</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10741,7 +10258,7 @@
         <v>600</v>
       </c>
       <c r="E430" t="s">
-        <v>878</v>
+        <v>799</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10758,7 +10275,7 @@
         <v>594</v>
       </c>
       <c r="E431" t="s">
-        <v>879</v>
+        <v>807</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10775,7 +10292,7 @@
         <v>600</v>
       </c>
       <c r="E432" t="s">
-        <v>880</v>
+        <v>808</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10792,7 +10309,7 @@
         <v>596</v>
       </c>
       <c r="E433" t="s">
-        <v>881</v>
+        <v>756</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10809,7 +10326,7 @@
         <v>594</v>
       </c>
       <c r="E434" t="s">
-        <v>882</v>
+        <v>809</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10826,7 +10343,7 @@
         <v>595</v>
       </c>
       <c r="E435" t="s">
-        <v>883</v>
+        <v>810</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10842,9 +10359,6 @@
       <c r="D436" t="s">
         <v>609</v>
       </c>
-      <c r="E436" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="1">
@@ -10860,7 +10374,7 @@
         <v>596</v>
       </c>
       <c r="E437" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10877,7 +10391,7 @@
         <v>588</v>
       </c>
       <c r="E438" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10894,7 +10408,7 @@
         <v>594</v>
       </c>
       <c r="E439" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10911,7 +10425,7 @@
         <v>596</v>
       </c>
       <c r="E440" t="s">
-        <v>876</v>
+        <v>740</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10928,7 +10442,7 @@
         <v>595</v>
       </c>
       <c r="E441" t="s">
-        <v>885</v>
+        <v>810</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10945,7 +10459,7 @@
         <v>594</v>
       </c>
       <c r="E442" t="s">
-        <v>886</v>
+        <v>718</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10962,7 +10476,7 @@
         <v>595</v>
       </c>
       <c r="E443" t="s">
-        <v>887</v>
+        <v>811</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10979,7 +10493,7 @@
         <v>596</v>
       </c>
       <c r="E444" t="s">
-        <v>888</v>
+        <v>812</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10996,7 +10510,7 @@
         <v>596</v>
       </c>
       <c r="E445" t="s">
-        <v>889</v>
+        <v>665</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -11013,7 +10527,7 @@
         <v>607</v>
       </c>
       <c r="E446" t="s">
-        <v>890</v>
+        <v>813</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11030,7 +10544,7 @@
         <v>595</v>
       </c>
       <c r="E447" t="s">
-        <v>891</v>
+        <v>810</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11061,7 +10575,7 @@
         <v>596</v>
       </c>
       <c r="E449" t="s">
-        <v>892</v>
+        <v>723</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11078,7 +10592,7 @@
         <v>596</v>
       </c>
       <c r="E450" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11095,7 +10609,7 @@
         <v>595</v>
       </c>
       <c r="E451" t="s">
-        <v>893</v>
+        <v>814</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11140,7 +10654,7 @@
         <v>595</v>
       </c>
       <c r="E454" t="s">
-        <v>894</v>
+        <v>768</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11157,7 +10671,7 @@
         <v>595</v>
       </c>
       <c r="E455" t="s">
-        <v>895</v>
+        <v>731</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11174,7 +10688,7 @@
         <v>596</v>
       </c>
       <c r="E456" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11191,7 +10705,7 @@
         <v>596</v>
       </c>
       <c r="E457" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11208,7 +10722,7 @@
         <v>618</v>
       </c>
       <c r="E458" t="s">
-        <v>896</v>
+        <v>815</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11225,7 +10739,7 @@
         <v>601</v>
       </c>
       <c r="E459" t="s">
-        <v>897</v>
+        <v>816</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11242,7 +10756,7 @@
         <v>594</v>
       </c>
       <c r="E460" t="s">
-        <v>898</v>
+        <v>817</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11259,7 +10773,7 @@
         <v>597</v>
       </c>
       <c r="E461" t="s">
-        <v>899</v>
+        <v>818</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11276,7 +10790,7 @@
         <v>626</v>
       </c>
       <c r="E462" t="s">
-        <v>900</v>
+        <v>730</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11293,7 +10807,7 @@
         <v>600</v>
       </c>
       <c r="E463" t="s">
-        <v>901</v>
+        <v>674</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11310,7 +10824,7 @@
         <v>596</v>
       </c>
       <c r="E464" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11327,7 +10841,7 @@
         <v>594</v>
       </c>
       <c r="E465" t="s">
-        <v>902</v>
+        <v>819</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11344,7 +10858,7 @@
         <v>594</v>
       </c>
       <c r="E466" t="s">
-        <v>903</v>
+        <v>740</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11361,7 +10875,7 @@
         <v>596</v>
       </c>
       <c r="E467" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11378,7 +10892,7 @@
         <v>596</v>
       </c>
       <c r="E468" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11395,7 +10909,7 @@
         <v>596</v>
       </c>
       <c r="E469" t="s">
-        <v>905</v>
+        <v>702</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11412,7 +10926,7 @@
         <v>597</v>
       </c>
       <c r="E470" t="s">
-        <v>906</v>
+        <v>821</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11429,7 +10943,7 @@
         <v>604</v>
       </c>
       <c r="E471" t="s">
-        <v>907</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11446,7 +10960,7 @@
         <v>600</v>
       </c>
       <c r="E472" t="s">
-        <v>908</v>
+        <v>823</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11463,7 +10977,7 @@
         <v>596</v>
       </c>
       <c r="E473" t="s">
-        <v>909</v>
+        <v>778</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11480,7 +10994,7 @@
         <v>627</v>
       </c>
       <c r="E474" t="s">
-        <v>910</v>
+        <v>824</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11497,7 +11011,7 @@
         <v>596</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>671</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11514,7 +11028,7 @@
         <v>596</v>
       </c>
       <c r="E476" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11531,7 +11045,7 @@
         <v>596</v>
       </c>
       <c r="E477" t="s">
-        <v>912</v>
+        <v>682</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11548,7 +11062,7 @@
         <v>596</v>
       </c>
       <c r="E478" t="s">
-        <v>913</v>
+        <v>826</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11565,7 +11079,7 @@
         <v>600</v>
       </c>
       <c r="E479" t="s">
-        <v>914</v>
+        <v>827</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11582,7 +11096,7 @@
         <v>600</v>
       </c>
       <c r="E480" t="s">
-        <v>915</v>
+        <v>828</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11599,7 +11113,7 @@
         <v>595</v>
       </c>
       <c r="E481" t="s">
-        <v>916</v>
+        <v>730</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11616,7 +11130,7 @@
         <v>625</v>
       </c>
       <c r="E482" t="s">
-        <v>917</v>
+        <v>829</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11633,7 +11147,7 @@
         <v>595</v>
       </c>
       <c r="E483" t="s">
-        <v>918</v>
+        <v>830</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11664,7 +11178,7 @@
         <v>600</v>
       </c>
       <c r="E485" t="s">
-        <v>919</v>
+        <v>831</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11681,7 +11195,7 @@
         <v>614</v>
       </c>
       <c r="E486" t="s">
-        <v>920</v>
+        <v>717</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11726,7 +11240,7 @@
         <v>591</v>
       </c>
       <c r="E489" t="s">
-        <v>805</v>
+        <v>671</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11743,7 +11257,7 @@
         <v>608</v>
       </c>
       <c r="E490" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11760,7 +11274,7 @@
         <v>584</v>
       </c>
       <c r="E491" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11777,7 +11291,7 @@
         <v>596</v>
       </c>
       <c r="E492" t="s">
-        <v>921</v>
+        <v>832</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11794,7 +11308,7 @@
         <v>616</v>
       </c>
       <c r="E493" t="s">
-        <v>922</v>
+        <v>833</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11811,7 +11325,7 @@
         <v>594</v>
       </c>
       <c r="E494" t="s">
-        <v>923</v>
+        <v>711</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11828,7 +11342,7 @@
         <v>595</v>
       </c>
       <c r="E495" t="s">
-        <v>681</v>
+        <v>834</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11845,7 +11359,7 @@
         <v>596</v>
       </c>
       <c r="E496" t="s">
-        <v>895</v>
+        <v>731</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11862,7 +11376,7 @@
         <v>608</v>
       </c>
       <c r="E497" t="s">
-        <v>924</v>
+        <v>798</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11893,7 +11407,7 @@
         <v>594</v>
       </c>
       <c r="E499" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11909,9 +11423,6 @@
       <c r="D500" t="s">
         <v>595</v>
       </c>
-      <c r="E500" t="s">
-        <v>925</v>
-      </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="1">
@@ -11927,7 +11438,7 @@
         <v>584</v>
       </c>
       <c r="E501" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11944,7 +11455,7 @@
         <v>592</v>
       </c>
       <c r="E502" t="s">
-        <v>926</v>
+        <v>835</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11961,7 +11472,7 @@
         <v>596</v>
       </c>
       <c r="E503" t="s">
-        <v>927</v>
+        <v>836</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11978,7 +11489,7 @@
         <v>588</v>
       </c>
       <c r="E504" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11995,7 +11506,7 @@
         <v>588</v>
       </c>
       <c r="E505" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -12012,7 +11523,7 @@
         <v>604</v>
       </c>
       <c r="E506" t="s">
-        <v>928</v>
+        <v>837</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -12029,7 +11540,7 @@
         <v>588</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>838</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -12046,7 +11557,7 @@
         <v>596</v>
       </c>
       <c r="E508" t="s">
-        <v>930</v>
+        <v>839</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -12077,7 +11588,7 @@
         <v>604</v>
       </c>
       <c r="E510" t="s">
-        <v>931</v>
+        <v>840</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -12094,7 +11605,7 @@
         <v>594</v>
       </c>
       <c r="E511" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12111,7 +11622,7 @@
         <v>596</v>
       </c>
       <c r="E512" t="s">
-        <v>932</v>
+        <v>681</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12128,7 +11639,7 @@
         <v>600</v>
       </c>
       <c r="E513" t="s">
-        <v>933</v>
+        <v>841</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12144,9 +11655,6 @@
       <c r="D514" t="s">
         <v>595</v>
       </c>
-      <c r="E514" t="s">
-        <v>934</v>
-      </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="1">
@@ -12176,7 +11684,7 @@
         <v>596</v>
       </c>
       <c r="E516" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12192,9 +11700,6 @@
       <c r="D517" t="s">
         <v>596</v>
       </c>
-      <c r="E517" t="s">
-        <v>935</v>
-      </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="1">
@@ -12210,7 +11715,7 @@
         <v>595</v>
       </c>
       <c r="E518" t="s">
-        <v>936</v>
+        <v>730</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12226,9 +11731,6 @@
       <c r="D519" t="s">
         <v>596</v>
       </c>
-      <c r="E519" t="s">
-        <v>791</v>
-      </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="1">
@@ -12244,7 +11746,7 @@
         <v>594</v>
       </c>
       <c r="E520" t="s">
-        <v>937</v>
+        <v>718</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12261,7 +11763,7 @@
         <v>584</v>
       </c>
       <c r="E521" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12292,7 +11794,7 @@
         <v>588</v>
       </c>
       <c r="E523" t="s">
-        <v>938</v>
+        <v>690</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12309,7 +11811,7 @@
         <v>589</v>
       </c>
       <c r="E524" t="s">
-        <v>939</v>
+        <v>842</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12326,7 +11828,7 @@
         <v>595</v>
       </c>
       <c r="E525" t="s">
-        <v>940</v>
+        <v>681</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12343,7 +11845,7 @@
         <v>588</v>
       </c>
       <c r="E526" t="s">
-        <v>941</v>
+        <v>702</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12360,7 +11862,7 @@
         <v>617</v>
       </c>
       <c r="E527" t="s">
-        <v>942</v>
+        <v>716</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12377,7 +11879,7 @@
         <v>596</v>
       </c>
       <c r="E528" t="s">
-        <v>943</v>
+        <v>641</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12394,7 +11896,7 @@
         <v>596</v>
       </c>
       <c r="E529" t="s">
-        <v>944</v>
+        <v>654</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12411,7 +11913,7 @@
         <v>595</v>
       </c>
       <c r="E530" t="s">
-        <v>945</v>
+        <v>843</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12428,7 +11930,7 @@
         <v>594</v>
       </c>
       <c r="E531" t="s">
-        <v>840</v>
+        <v>664</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12445,7 +11947,7 @@
         <v>596</v>
       </c>
       <c r="E532" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12462,7 +11964,7 @@
         <v>588</v>
       </c>
       <c r="E533" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12479,7 +11981,7 @@
         <v>597</v>
       </c>
       <c r="E534" t="s">
-        <v>946</v>
+        <v>743</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12496,7 +11998,7 @@
         <v>595</v>
       </c>
       <c r="E535" t="s">
-        <v>947</v>
+        <v>668</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12513,7 +12015,7 @@
         <v>594</v>
       </c>
       <c r="E536" t="s">
-        <v>948</v>
+        <v>711</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12530,7 +12032,7 @@
         <v>604</v>
       </c>
       <c r="E537" t="s">
-        <v>949</v>
+        <v>654</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12547,7 +12049,7 @@
         <v>588</v>
       </c>
       <c r="E538" t="s">
-        <v>950</v>
+        <v>844</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12564,7 +12066,7 @@
         <v>628</v>
       </c>
       <c r="E539" t="s">
-        <v>951</v>
+        <v>702</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12581,7 +12083,7 @@
         <v>588</v>
       </c>
       <c r="E540" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12597,9 +12099,6 @@
       <c r="D541" t="s">
         <v>596</v>
       </c>
-      <c r="E541" t="s">
-        <v>952</v>
-      </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="1">
@@ -12615,7 +12114,7 @@
         <v>588</v>
       </c>
       <c r="E542" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12632,7 +12131,7 @@
         <v>594</v>
       </c>
       <c r="E543" t="s">
-        <v>953</v>
+        <v>845</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12649,7 +12148,7 @@
         <v>596</v>
       </c>
       <c r="E544" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12666,7 +12165,7 @@
         <v>596</v>
       </c>
       <c r="E545" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12683,7 +12182,7 @@
         <v>588</v>
       </c>
       <c r="E546" t="s">
-        <v>954</v>
+        <v>846</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12700,7 +12199,7 @@
         <v>596</v>
       </c>
       <c r="E547" t="s">
-        <v>955</v>
+        <v>795</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12731,7 +12230,7 @@
         <v>598</v>
       </c>
       <c r="E549" t="s">
-        <v>956</v>
+        <v>734</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12748,7 +12247,7 @@
         <v>596</v>
       </c>
       <c r="E550" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12765,7 +12264,7 @@
         <v>596</v>
       </c>
       <c r="E551" t="s">
-        <v>957</v>
+        <v>707</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12782,7 +12281,7 @@
         <v>607</v>
       </c>
       <c r="E552" t="s">
-        <v>958</v>
+        <v>847</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12799,7 +12298,7 @@
         <v>595</v>
       </c>
       <c r="E553" t="s">
-        <v>959</v>
+        <v>731</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12816,7 +12315,7 @@
         <v>596</v>
       </c>
       <c r="E554" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12833,7 +12332,7 @@
         <v>594</v>
       </c>
       <c r="E555" t="s">
-        <v>960</v>
+        <v>848</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12864,7 +12363,7 @@
         <v>596</v>
       </c>
       <c r="E557" t="s">
-        <v>961</v>
+        <v>731</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12881,7 +12380,7 @@
         <v>623</v>
       </c>
       <c r="E558" t="s">
-        <v>962</v>
+        <v>849</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12898,7 +12397,7 @@
         <v>594</v>
       </c>
       <c r="E559" t="s">
-        <v>963</v>
+        <v>662</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12915,7 +12414,7 @@
         <v>607</v>
       </c>
       <c r="E560" t="s">
-        <v>964</v>
+        <v>836</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12932,7 +12431,7 @@
         <v>610</v>
       </c>
       <c r="E561" t="s">
-        <v>965</v>
+        <v>850</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12949,7 +12448,7 @@
         <v>600</v>
       </c>
       <c r="E562" t="s">
-        <v>764</v>
+        <v>679</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12966,7 +12465,7 @@
         <v>584</v>
       </c>
       <c r="E563" t="s">
-        <v>966</v>
+        <v>723</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12983,7 +12482,7 @@
         <v>596</v>
       </c>
       <c r="E564" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -13000,7 +12499,7 @@
         <v>610</v>
       </c>
       <c r="E565" t="s">
-        <v>967</v>
+        <v>851</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -13017,7 +12516,7 @@
         <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>968</v>
+        <v>729</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -13034,7 +12533,7 @@
         <v>595</v>
       </c>
       <c r="E567" t="s">
-        <v>969</v>
+        <v>702</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -13051,7 +12550,7 @@
         <v>594</v>
       </c>
       <c r="E568" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -13068,7 +12567,7 @@
         <v>596</v>
       </c>
       <c r="E569" t="s">
-        <v>970</v>
+        <v>852</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -13085,7 +12584,7 @@
         <v>596</v>
       </c>
       <c r="E570" t="s">
-        <v>971</v>
+        <v>768</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -13115,9 +12614,6 @@
       <c r="D572" t="s">
         <v>594</v>
       </c>
-      <c r="E572" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="1">
@@ -13133,7 +12629,7 @@
         <v>609</v>
       </c>
       <c r="E573" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -13150,7 +12646,7 @@
         <v>604</v>
       </c>
       <c r="E574" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -13181,7 +12677,7 @@
         <v>594</v>
       </c>
       <c r="E576" t="s">
-        <v>972</v>
+        <v>662</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -13198,7 +12694,7 @@
         <v>629</v>
       </c>
       <c r="E577" t="s">
-        <v>973</v>
+        <v>680</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -13215,7 +12711,7 @@
         <v>603</v>
       </c>
       <c r="E578" t="s">
-        <v>974</v>
+        <v>707</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -13232,7 +12728,7 @@
         <v>584</v>
       </c>
       <c r="E579" t="s">
-        <v>975</v>
+        <v>853</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -13249,7 +12745,7 @@
         <v>612</v>
       </c>
       <c r="E580" t="s">
-        <v>976</v>
+        <v>821</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -13266,7 +12762,7 @@
         <v>588</v>
       </c>
       <c r="E581" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -13283,7 +12779,7 @@
         <v>630</v>
       </c>
       <c r="E582" t="s">
-        <v>977</v>
+        <v>854</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -13300,7 +12796,7 @@
         <v>595</v>
       </c>
       <c r="E583" t="s">
-        <v>978</v>
+        <v>855</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -13317,7 +12813,7 @@
         <v>600</v>
       </c>
       <c r="E584" t="s">
-        <v>979</v>
+        <v>670</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -13348,7 +12844,7 @@
         <v>594</v>
       </c>
       <c r="E586" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13365,7 +12861,7 @@
         <v>596</v>
       </c>
       <c r="E587" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -13382,7 +12878,7 @@
         <v>595</v>
       </c>
       <c r="E588" t="s">
-        <v>949</v>
+        <v>654</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13399,7 +12895,7 @@
         <v>595</v>
       </c>
       <c r="E589" t="s">
-        <v>980</v>
+        <v>856</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13416,7 +12912,7 @@
         <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>981</v>
+        <v>673</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13433,7 +12929,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>776</v>
+        <v>662</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13450,7 +12946,7 @@
         <v>609</v>
       </c>
       <c r="E592" t="s">
-        <v>982</v>
+        <v>857</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13467,7 +12963,7 @@
         <v>606</v>
       </c>
       <c r="E593" t="s">
-        <v>983</v>
+        <v>823</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13483,9 +12979,6 @@
       <c r="D594" t="s">
         <v>588</v>
       </c>
-      <c r="E594" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="1">
@@ -13501,7 +12994,7 @@
         <v>631</v>
       </c>
       <c r="E595" t="s">
-        <v>984</v>
+        <v>858</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13518,7 +13011,7 @@
         <v>596</v>
       </c>
       <c r="E596" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -13535,7 +13028,7 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>985</v>
+        <v>665</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13552,7 +13045,7 @@
         <v>588</v>
       </c>
       <c r="E598" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13569,7 +13062,7 @@
         <v>587</v>
       </c>
       <c r="E599" t="s">
-        <v>986</v>
+        <v>859</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13586,7 +13079,7 @@
         <v>632</v>
       </c>
       <c r="E600" t="s">
-        <v>987</v>
+        <v>860</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13603,7 +13096,7 @@
         <v>596</v>
       </c>
       <c r="E601" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13620,7 +13113,7 @@
         <v>594</v>
       </c>
       <c r="E602" t="s">
-        <v>988</v>
+        <v>662</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13637,7 +13130,7 @@
         <v>596</v>
       </c>
       <c r="E603" t="s">
-        <v>971</v>
+        <v>768</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13654,7 +13147,7 @@
         <v>595</v>
       </c>
       <c r="E604" t="s">
-        <v>796</v>
+        <v>672</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13671,7 +13164,7 @@
         <v>596</v>
       </c>
       <c r="E605" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13688,7 +13181,7 @@
         <v>596</v>
       </c>
       <c r="E606" t="s">
-        <v>989</v>
+        <v>791</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13705,7 +13198,7 @@
         <v>598</v>
       </c>
       <c r="E607" t="s">
-        <v>990</v>
+        <v>861</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13722,7 +13215,7 @@
         <v>596</v>
       </c>
       <c r="E608" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13739,7 +13232,7 @@
         <v>594</v>
       </c>
       <c r="E609" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13756,7 +13249,7 @@
         <v>584</v>
       </c>
       <c r="E610" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13773,7 +13266,7 @@
         <v>596</v>
       </c>
       <c r="E611" t="s">
-        <v>991</v>
+        <v>768</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13790,7 +13283,7 @@
         <v>609</v>
       </c>
       <c r="E612" t="s">
-        <v>992</v>
+        <v>862</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13807,7 +13300,7 @@
         <v>596</v>
       </c>
       <c r="E613" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13823,9 +13316,6 @@
       <c r="D614" t="s">
         <v>603</v>
       </c>
-      <c r="E614" t="s">
-        <v>993</v>
-      </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="1">
@@ -13841,7 +13331,7 @@
         <v>592</v>
       </c>
       <c r="E615" t="s">
-        <v>994</v>
+        <v>863</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13858,7 +13348,7 @@
         <v>604</v>
       </c>
       <c r="E616" t="s">
-        <v>995</v>
+        <v>864</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13875,7 +13365,7 @@
         <v>633</v>
       </c>
       <c r="E617" t="s">
-        <v>996</v>
+        <v>865</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13892,7 +13382,7 @@
         <v>594</v>
       </c>
       <c r="E618" t="s">
-        <v>876</v>
+        <v>740</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -13909,7 +13399,7 @@
         <v>596</v>
       </c>
       <c r="E619" t="s">
-        <v>997</v>
+        <v>866</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13926,7 +13416,7 @@
         <v>596</v>
       </c>
       <c r="E620" t="s">
-        <v>792</v>
+        <v>729</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13971,7 +13461,7 @@
         <v>596</v>
       </c>
       <c r="E623" t="s">
-        <v>998</v>
+        <v>674</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13988,7 +13478,7 @@
         <v>596</v>
       </c>
       <c r="E624" t="s">
-        <v>999</v>
+        <v>836</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -14005,7 +13495,7 @@
         <v>592</v>
       </c>
       <c r="E625" t="s">
-        <v>1000</v>
+        <v>867</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -14022,7 +13512,7 @@
         <v>595</v>
       </c>
       <c r="E626" t="s">
-        <v>1001</v>
+        <v>768</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -14039,7 +13529,7 @@
         <v>596</v>
       </c>
       <c r="E627" t="s">
-        <v>762</v>
+        <v>668</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -14056,7 +13546,7 @@
         <v>598</v>
       </c>
       <c r="E628" t="s">
-        <v>886</v>
+        <v>718</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -14073,7 +13563,7 @@
         <v>596</v>
       </c>
       <c r="E629" t="s">
-        <v>1002</v>
+        <v>836</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -14090,7 +13580,7 @@
         <v>598</v>
       </c>
       <c r="E630" t="s">
-        <v>1003</v>
+        <v>868</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -14135,7 +13625,7 @@
         <v>595</v>
       </c>
       <c r="E633" t="s">
-        <v>1004</v>
+        <v>869</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -14152,7 +13642,7 @@
         <v>594</v>
       </c>
       <c r="E634" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -14169,7 +13659,7 @@
         <v>607</v>
       </c>
       <c r="E635" t="s">
-        <v>1005</v>
+        <v>707</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -14186,7 +13676,7 @@
         <v>596</v>
       </c>
       <c r="E636" t="s">
-        <v>941</v>
+        <v>702</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -14202,9 +13692,6 @@
       <c r="D637" t="s">
         <v>588</v>
       </c>
-      <c r="E637" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="1">
@@ -14220,7 +13707,7 @@
         <v>595</v>
       </c>
       <c r="E638" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -14237,7 +13724,7 @@
         <v>595</v>
       </c>
       <c r="E639" t="s">
-        <v>808</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -14254,7 +13741,7 @@
         <v>594</v>
       </c>
       <c r="E640" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -14271,7 +13758,7 @@
         <v>600</v>
       </c>
       <c r="E641" t="s">
-        <v>906</v>
+        <v>821</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -14288,7 +13775,7 @@
         <v>596</v>
       </c>
       <c r="E642" t="s">
-        <v>1006</v>
+        <v>870</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14305,7 +13792,7 @@
         <v>596</v>
       </c>
       <c r="E643" t="s">
-        <v>906</v>
+        <v>821</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -14336,7 +13823,7 @@
         <v>596</v>
       </c>
       <c r="E645" t="s">
-        <v>1007</v>
+        <v>871</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14353,7 +13840,7 @@
         <v>595</v>
       </c>
       <c r="E646" t="s">
-        <v>1008</v>
+        <v>872</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14370,7 +13857,7 @@
         <v>584</v>
       </c>
       <c r="E647" t="s">
-        <v>1009</v>
+        <v>873</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14404,7 +13891,7 @@
         <v>596</v>
       </c>
       <c r="E649" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14421,7 +13908,7 @@
         <v>600</v>
       </c>
       <c r="E650" t="s">
-        <v>1010</v>
+        <v>874</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14438,7 +13925,7 @@
         <v>588</v>
       </c>
       <c r="E651" t="s">
-        <v>1011</v>
+        <v>875</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -14454,9 +13941,6 @@
       <c r="D652" t="s">
         <v>596</v>
       </c>
-      <c r="E652" t="s">
-        <v>1012</v>
-      </c>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="1">
@@ -14471,9 +13955,6 @@
       <c r="D653" t="s">
         <v>594</v>
       </c>
-      <c r="E653" t="s">
-        <v>1013</v>
-      </c>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="1">
@@ -14489,7 +13970,7 @@
         <v>594</v>
       </c>
       <c r="E654" t="s">
-        <v>1014</v>
+        <v>692</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14506,7 +13987,7 @@
         <v>634</v>
       </c>
       <c r="E655" t="s">
-        <v>1015</v>
+        <v>876</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14523,7 +14004,7 @@
         <v>635</v>
       </c>
       <c r="E656" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14554,7 +14035,7 @@
         <v>594</v>
       </c>
       <c r="E658" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14571,7 +14052,7 @@
         <v>594</v>
       </c>
       <c r="E659" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14588,7 +14069,7 @@
         <v>594</v>
       </c>
       <c r="E660" t="s">
-        <v>1016</v>
+        <v>712</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14605,7 +14086,7 @@
         <v>592</v>
       </c>
       <c r="E661" t="s">
-        <v>1017</v>
+        <v>877</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14622,7 +14103,7 @@
         <v>607</v>
       </c>
       <c r="E662" t="s">
-        <v>1018</v>
+        <v>878</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -14639,7 +14120,7 @@
         <v>588</v>
       </c>
       <c r="E663" t="s">
-        <v>1019</v>
+        <v>879</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14656,7 +14137,7 @@
         <v>598</v>
       </c>
       <c r="E664" t="s">
-        <v>1020</v>
+        <v>880</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14673,7 +14154,7 @@
         <v>596</v>
       </c>
       <c r="E665" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14718,7 +14199,7 @@
         <v>594</v>
       </c>
       <c r="E668" t="s">
-        <v>1021</v>
+        <v>761</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14735,7 +14216,7 @@
         <v>599</v>
       </c>
       <c r="E669" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14752,7 +14233,7 @@
         <v>595</v>
       </c>
       <c r="E670" t="s">
-        <v>867</v>
+        <v>683</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14786,7 +14267,7 @@
         <v>595</v>
       </c>
       <c r="E672" t="s">
-        <v>1022</v>
+        <v>881</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14803,7 +14284,7 @@
         <v>636</v>
       </c>
       <c r="E673" t="s">
-        <v>1023</v>
+        <v>718</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14820,7 +14301,7 @@
         <v>594</v>
       </c>
       <c r="E674" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14837,7 +14318,7 @@
         <v>588</v>
       </c>
       <c r="E675" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14854,7 +14335,7 @@
         <v>595</v>
       </c>
       <c r="E676" t="s">
-        <v>1024</v>
+        <v>882</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14871,7 +14352,7 @@
         <v>617</v>
       </c>
       <c r="E677" t="s">
-        <v>1025</v>
+        <v>883</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14888,7 +14369,7 @@
         <v>617</v>
       </c>
       <c r="E678" t="s">
-        <v>1026</v>
+        <v>656</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14905,7 +14386,7 @@
         <v>637</v>
       </c>
       <c r="E679" t="s">
-        <v>1027</v>
+        <v>884</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14922,7 +14403,7 @@
         <v>596</v>
       </c>
       <c r="E680" t="s">
-        <v>1028</v>
+        <v>684</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14939,7 +14420,7 @@
         <v>596</v>
       </c>
       <c r="E681" t="s">
-        <v>1029</v>
+        <v>885</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14956,7 +14437,7 @@
         <v>588</v>
       </c>
       <c r="E682" t="s">
-        <v>1030</v>
+        <v>886</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14973,7 +14454,7 @@
         <v>588</v>
       </c>
       <c r="E683" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -15032,7 +14513,7 @@
         <v>588</v>
       </c>
       <c r="E687" t="s">
-        <v>876</v>
+        <v>740</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -15049,7 +14530,7 @@
         <v>588</v>
       </c>
       <c r="E688" t="s">
-        <v>1031</v>
+        <v>887</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -15080,7 +14561,7 @@
         <v>588</v>
       </c>
       <c r="E690" t="s">
-        <v>845</v>
+        <v>713</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -15111,7 +14592,7 @@
         <v>588</v>
       </c>
       <c r="E692" t="s">
-        <v>1032</v>
+        <v>888</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -15128,7 +14609,7 @@
         <v>588</v>
       </c>
       <c r="E693" t="s">
-        <v>1033</v>
+        <v>889</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -15145,7 +14626,7 @@
         <v>588</v>
       </c>
       <c r="E694" t="s">
-        <v>1034</v>
+        <v>890</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -15162,7 +14643,7 @@
         <v>588</v>
       </c>
       <c r="E695" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -15179,7 +14660,7 @@
         <v>588</v>
       </c>
       <c r="E696" t="s">
-        <v>1035</v>
+        <v>891</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -15196,7 +14677,7 @@
         <v>588</v>
       </c>
       <c r="E697" t="s">
-        <v>1035</v>
+        <v>891</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -15213,7 +14694,7 @@
         <v>588</v>
       </c>
       <c r="E698" t="s">
-        <v>845</v>
+        <v>713</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -15230,7 +14711,7 @@
         <v>588</v>
       </c>
       <c r="E699" t="s">
-        <v>1036</v>
+        <v>892</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -15247,7 +14728,7 @@
         <v>588</v>
       </c>
       <c r="E700" t="s">
-        <v>1037</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
